--- a/lib/MenuPage/menus/Bar 2-5.xlsx
+++ b/lib/MenuPage/menus/Bar 2-5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chide/Desktop/barzzy_app2/lib/menus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chide/Desktop/barzzy_app2/lib/MenuPage/menus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF799B7-F049-E54F-919F-761B7F28074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEEC68E-F93E-2446-BAAB-732D85CF6FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{0C009726-D79C-1146-A5AA-75E186A4682F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="81">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -122,9 +122,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Liquor </t>
-  </si>
-  <si>
     <t>Virgin</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>Centros Taco Bar</t>
+  </si>
+  <si>
+    <t>Liquor</t>
   </si>
 </sst>
 </file>
@@ -394,16 +394,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -743,78 +743,78 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="I2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>8.99</v>
       </c>
@@ -822,81 +822,71 @@
         <v>0.45</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>9.99</v>
       </c>
       <c r="H4" s="3">
         <v>0.45</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>7.99</v>
       </c>
@@ -904,81 +894,69 @@
         <v>0.45</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>6.99</v>
       </c>
       <c r="H6" s="3">
         <v>0.45</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>8.99</v>
       </c>
@@ -986,81 +964,71 @@
         <v>0.45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2">
         <v>3.99</v>
       </c>
       <c r="H8" s="3">
         <v>0.45</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2">
         <v>9.99</v>
       </c>
@@ -1068,81 +1036,67 @@
         <v>0.45</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="2">
         <v>10.99</v>
       </c>
       <c r="H10" s="3">
         <v>0.45</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="2">
         <v>14.99</v>
       </c>
@@ -1150,81 +1104,71 @@
         <v>0.45</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2">
         <v>3.99</v>
       </c>
       <c r="H12" s="3">
         <v>0.45</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
         <v>6.99</v>
       </c>
@@ -1232,81 +1176,71 @@
         <v>0.45</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2">
         <v>4.99</v>
       </c>
       <c r="H14" s="3">
         <v>0.45</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2">
         <v>4.99</v>
       </c>
@@ -1314,81 +1248,71 @@
         <v>0.45</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2">
         <v>4.99</v>
       </c>
       <c r="H16" s="3">
         <v>0.45</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2">
         <v>4.99</v>
       </c>
@@ -1396,40 +1320,40 @@
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="2">
         <v>4.99</v>
       </c>
@@ -1437,40 +1361,40 @@
         <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="2">
         <v>4.99</v>
       </c>
@@ -1478,40 +1402,40 @@
         <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="2">
         <v>4.99</v>
       </c>
@@ -1519,81 +1443,79 @@
         <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="2">
         <v>4.99</v>
       </c>
       <c r="H21" s="3">
         <v>0.15</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="2">
         <v>4.99</v>
       </c>
@@ -1601,81 +1523,77 @@
         <v>0.15</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2">
         <v>4.99</v>
       </c>
       <c r="H23" s="3">
         <v>0.15</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2">
         <v>4.99</v>
       </c>
@@ -1683,81 +1601,77 @@
         <v>0.15</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2">
         <v>4.99</v>
       </c>
       <c r="H25" s="3">
         <v>0.15</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2">
         <v>4.99</v>
       </c>
@@ -1765,81 +1679,77 @@
         <v>0.15</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2">
         <v>4.99</v>
       </c>
       <c r="H27" s="3">
         <v>0.15</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="2">
         <v>4.99</v>
       </c>
@@ -1847,81 +1757,77 @@
         <v>0.15</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="2">
         <v>4.99</v>
       </c>
       <c r="H29" s="3">
         <v>0.15</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="2">
         <v>4.99</v>
       </c>
@@ -1929,70 +1835,114 @@
         <v>0.15</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="2">
         <v>4.99</v>
       </c>
       <c r="H31" s="3">
         <v>0.15</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:F14"/>
@@ -2009,54 +1959,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2064,81 +1966,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C005DB84-9123-E94D-B1F2-D68AA091A3CC}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O31"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="6" t="s">
+      <c r="A1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="I2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>8.99</v>
       </c>
@@ -2146,81 +2048,71 @@
         <v>0.45</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>9.99</v>
       </c>
       <c r="H4" s="3">
         <v>0.45</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>7.99</v>
       </c>
@@ -2228,81 +2120,69 @@
         <v>0.45</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>6.99</v>
       </c>
       <c r="H6" s="3">
         <v>0.45</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>8.99</v>
       </c>
@@ -2310,81 +2190,71 @@
         <v>0.45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2">
         <v>3.99</v>
       </c>
       <c r="H8" s="3">
         <v>0.45</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2">
         <v>9.99</v>
       </c>
@@ -2392,81 +2262,67 @@
         <v>0.45</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="2">
         <v>10.99</v>
       </c>
       <c r="H10" s="3">
         <v>0.45</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="2">
         <v>14.99</v>
       </c>
@@ -2474,81 +2330,71 @@
         <v>0.45</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2">
         <v>3.99</v>
       </c>
       <c r="H12" s="3">
         <v>0.45</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
         <v>6.99</v>
       </c>
@@ -2556,81 +2402,71 @@
         <v>0.45</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2">
         <v>4.99</v>
       </c>
       <c r="H14" s="3">
         <v>0.45</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2">
         <v>4.99</v>
       </c>
@@ -2638,81 +2474,71 @@
         <v>0.45</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2">
         <v>4.99</v>
       </c>
       <c r="H16" s="3">
         <v>0.45</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2">
         <v>4.99</v>
       </c>
@@ -2720,40 +2546,40 @@
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="2">
         <v>4.99</v>
       </c>
@@ -2761,40 +2587,40 @@
         <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="2">
         <v>4.99</v>
       </c>
@@ -2802,40 +2628,40 @@
         <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="2">
         <v>4.99</v>
       </c>
@@ -2843,81 +2669,79 @@
         <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="2">
         <v>4.99</v>
       </c>
       <c r="H21" s="3">
         <v>0.15</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="2">
         <v>4.99</v>
       </c>
@@ -2925,81 +2749,77 @@
         <v>0.15</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2">
         <v>4.99</v>
       </c>
       <c r="H23" s="3">
         <v>0.15</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2">
         <v>4.99</v>
       </c>
@@ -3007,81 +2827,77 @@
         <v>0.15</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2">
         <v>4.99</v>
       </c>
       <c r="H25" s="3">
         <v>0.15</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2">
         <v>4.99</v>
       </c>
@@ -3089,81 +2905,77 @@
         <v>0.15</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2">
         <v>4.99</v>
       </c>
       <c r="H27" s="3">
         <v>0.15</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="2">
         <v>4.99</v>
       </c>
@@ -3171,81 +2983,77 @@
         <v>0.15</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="2">
         <v>4.99</v>
       </c>
       <c r="H29" s="3">
         <v>0.15</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="2">
         <v>4.99</v>
       </c>
@@ -3253,118 +3061,107 @@
         <v>0.15</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="2">
         <v>4.99</v>
       </c>
       <c r="H31" s="3">
         <v>0.15</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>63</v>
+      <c r="K32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
+  <mergeCells count="66">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="B27:C27"/>
@@ -3381,6 +3178,54 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3391,78 +3236,78 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="I2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>8.99</v>
       </c>
@@ -3470,81 +3315,71 @@
         <v>0.45</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>9.99</v>
       </c>
       <c r="H4" s="3">
         <v>0.45</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>7.99</v>
       </c>
@@ -3552,81 +3387,69 @@
         <v>0.45</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>6.99</v>
       </c>
       <c r="H6" s="3">
         <v>0.45</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>8.99</v>
       </c>
@@ -3634,81 +3457,71 @@
         <v>0.45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2">
         <v>3.99</v>
       </c>
       <c r="H8" s="3">
         <v>0.45</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2">
         <v>9.99</v>
       </c>
@@ -3716,81 +3529,67 @@
         <v>0.45</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="2">
         <v>10.99</v>
       </c>
       <c r="H10" s="3">
         <v>0.45</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="2">
         <v>14.99</v>
       </c>
@@ -3798,81 +3597,71 @@
         <v>0.45</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2">
         <v>3.99</v>
       </c>
       <c r="H12" s="3">
         <v>0.45</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
         <v>6.99</v>
       </c>
@@ -3880,81 +3669,71 @@
         <v>0.45</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2">
         <v>4.99</v>
       </c>
       <c r="H14" s="3">
         <v>0.45</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2">
         <v>4.99</v>
       </c>
@@ -3962,81 +3741,71 @@
         <v>0.45</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2">
         <v>4.99</v>
       </c>
       <c r="H16" s="3">
         <v>0.45</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2">
         <v>4.99</v>
       </c>
@@ -4044,40 +3813,40 @@
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="2">
         <v>4.99</v>
       </c>
@@ -4085,40 +3854,40 @@
         <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="2">
         <v>4.99</v>
       </c>
@@ -4126,40 +3895,40 @@
         <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="2">
         <v>4.99</v>
       </c>
@@ -4167,81 +3936,79 @@
         <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="2">
         <v>4.99</v>
       </c>
       <c r="H21" s="3">
         <v>0.15</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="2">
         <v>4.99</v>
       </c>
@@ -4249,81 +4016,77 @@
         <v>0.15</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2">
         <v>4.99</v>
       </c>
       <c r="H23" s="3">
         <v>0.15</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2">
         <v>4.99</v>
       </c>
@@ -4331,81 +4094,77 @@
         <v>0.15</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2">
         <v>4.99</v>
       </c>
       <c r="H25" s="3">
         <v>0.15</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2">
         <v>4.99</v>
       </c>
@@ -4413,81 +4172,77 @@
         <v>0.15</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2">
         <v>4.99</v>
       </c>
       <c r="H27" s="3">
         <v>0.15</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="2">
         <v>4.99</v>
       </c>
@@ -4495,81 +4250,77 @@
         <v>0.15</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="2">
         <v>4.99</v>
       </c>
       <c r="H29" s="3">
         <v>0.15</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="2">
         <v>4.99</v>
       </c>
@@ -4577,90 +4328,94 @@
         <v>0.15</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="2">
         <v>4.99</v>
       </c>
       <c r="H31" s="3">
         <v>0.15</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
@@ -4677,34 +4432,26 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4715,78 +4462,78 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="I2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="2">
         <v>8.99</v>
       </c>
@@ -4794,81 +4541,71 @@
         <v>0.45</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2">
         <v>9.99</v>
       </c>
       <c r="H4" s="3">
         <v>0.45</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>7.99</v>
       </c>
@@ -4876,81 +4613,69 @@
         <v>0.45</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2">
         <v>6.99</v>
       </c>
       <c r="H6" s="3">
         <v>0.45</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2">
         <v>8.99</v>
       </c>
@@ -4958,81 +4683,71 @@
         <v>0.45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2">
         <v>3.99</v>
       </c>
       <c r="H8" s="3">
         <v>0.45</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2">
         <v>9.99</v>
       </c>
@@ -5040,81 +4755,67 @@
         <v>0.45</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="2">
         <v>10.99</v>
       </c>
       <c r="H10" s="3">
         <v>0.45</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="2">
         <v>14.99</v>
       </c>
@@ -5122,81 +4823,71 @@
         <v>0.45</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2">
         <v>3.99</v>
       </c>
       <c r="H12" s="3">
         <v>0.45</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2">
         <v>6.99</v>
       </c>
@@ -5204,81 +4895,71 @@
         <v>0.45</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="2">
         <v>4.99</v>
       </c>
       <c r="H14" s="3">
         <v>0.45</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="2">
         <v>4.99</v>
       </c>
@@ -5286,81 +4967,71 @@
         <v>0.45</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2">
         <v>4.99</v>
       </c>
       <c r="H16" s="3">
         <v>0.45</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="O16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="2">
         <v>4.99</v>
       </c>
@@ -5368,40 +5039,40 @@
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="2">
         <v>4.99</v>
       </c>
@@ -5409,40 +5080,40 @@
         <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="2">
         <v>4.99</v>
       </c>
@@ -5450,40 +5121,40 @@
         <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="2">
         <v>4.99</v>
       </c>
@@ -5491,81 +5162,79 @@
         <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="2">
         <v>4.99</v>
       </c>
       <c r="H21" s="3">
         <v>0.15</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="2">
         <v>4.99</v>
       </c>
@@ -5573,81 +5242,77 @@
         <v>0.15</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="2">
         <v>4.99</v>
       </c>
       <c r="H23" s="3">
         <v>0.15</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="2">
         <v>4.99</v>
       </c>
@@ -5655,81 +5320,77 @@
         <v>0.15</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="2">
         <v>4.99</v>
       </c>
       <c r="H25" s="3">
         <v>0.15</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="2">
         <v>4.99</v>
       </c>
@@ -5737,81 +5398,77 @@
         <v>0.15</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2">
         <v>4.99</v>
       </c>
       <c r="H27" s="3">
         <v>0.15</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="2">
         <v>4.99</v>
       </c>
@@ -5819,81 +5476,77 @@
         <v>0.15</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="2">
         <v>4.99</v>
       </c>
       <c r="H29" s="3">
         <v>0.15</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="2">
         <v>4.99</v>
       </c>
@@ -5901,90 +5554,94 @@
         <v>0.15</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="2">
         <v>4.99</v>
       </c>
       <c r="H31" s="3">
         <v>0.15</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="L31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
@@ -6001,34 +5658,26 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lib/MenuPage/menus/Bar 2-5.xlsx
+++ b/lib/MenuPage/menus/Bar 2-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chide/Desktop/barzzy_app2/lib/MenuPage/menus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE773219-F513-0A45-A6C5-B2ED319F1C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F796262B-F9BC-8945-B4DD-22D974A073B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0C009726-D79C-1146-A5AA-75E186A4682F}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{0C009726-D79C-1146-A5AA-75E186A4682F}"/>
   </bookViews>
   <sheets>
     <sheet name="The Coop" sheetId="1" r:id="rId1"/>
@@ -833,7 +833,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
